--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H2">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N2">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q2">
-        <v>15.58695417157456</v>
+        <v>58.07362774484822</v>
       </c>
       <c r="R2">
-        <v>140.282587544171</v>
+        <v>522.662649703634</v>
       </c>
       <c r="S2">
-        <v>0.08248403475522158</v>
+        <v>0.2084520157011323</v>
       </c>
       <c r="T2">
-        <v>0.08248403475522156</v>
+        <v>0.2084520157011323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H3">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
         <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P3">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q3">
-        <v>1.591992552428555</v>
+        <v>3.088919600919778</v>
       </c>
       <c r="R3">
-        <v>14.327932971857</v>
+        <v>27.800276408278</v>
       </c>
       <c r="S3">
-        <v>0.008424607372237231</v>
+        <v>0.01108750291921595</v>
       </c>
       <c r="T3">
-        <v>0.008424607372237231</v>
+        <v>0.01108750291921595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H4">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N4">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O4">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P4">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q4">
-        <v>1.20782891899</v>
+        <v>4.543902321358889</v>
       </c>
       <c r="R4">
-        <v>10.87046027091</v>
+        <v>40.89512089223</v>
       </c>
       <c r="S4">
-        <v>0.006391665840271656</v>
+        <v>0.01631008144002749</v>
       </c>
       <c r="T4">
-        <v>0.006391665840271656</v>
+        <v>0.01631008144002749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H5">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N5">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q5">
-        <v>11.00710357991678</v>
+        <v>38.63632731649044</v>
       </c>
       <c r="R5">
-        <v>99.063932219251</v>
+        <v>347.726945848414</v>
       </c>
       <c r="S5">
-        <v>0.05824809030977376</v>
+        <v>0.1386829206502536</v>
       </c>
       <c r="T5">
-        <v>0.05824809030977374</v>
+        <v>0.1386829206502536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H6">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I6">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J6">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N6">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q6">
-        <v>0.327925939899</v>
+        <v>0.7389770837802222</v>
       </c>
       <c r="R6">
-        <v>2.951333459090999</v>
+        <v>6.650793754022001</v>
       </c>
       <c r="S6">
-        <v>0.001735339330957655</v>
+        <v>0.002652516618175227</v>
       </c>
       <c r="T6">
-        <v>0.001735339330957655</v>
+        <v>0.002652516618175227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H7">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I7">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J7">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N7">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q7">
-        <v>1.331557845349444</v>
+        <v>2.326437573589556</v>
       </c>
       <c r="R7">
-        <v>11.984020608145</v>
+        <v>20.937938162306</v>
       </c>
       <c r="S7">
-        <v>0.00704642243669961</v>
+        <v>0.008350616630121144</v>
       </c>
       <c r="T7">
-        <v>0.007046422436699608</v>
+        <v>0.008350616630121143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N8">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q8">
-        <v>27.29464357675322</v>
+        <v>52.41185762190877</v>
       </c>
       <c r="R8">
-        <v>245.651792190779</v>
+        <v>471.7067185971789</v>
       </c>
       <c r="S8">
-        <v>0.1444395296627006</v>
+        <v>0.1881294107530046</v>
       </c>
       <c r="T8">
-        <v>0.1444395296627006</v>
+        <v>0.1881294107530046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
         <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P9">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q9">
-        <v>2.787771672199221</v>
+        <v>2.787771672199222</v>
       </c>
       <c r="R9">
-        <v>25.08994504979299</v>
+        <v>25.089945049793</v>
       </c>
       <c r="S9">
-        <v>0.01475250731914317</v>
+        <v>0.01000654939170725</v>
       </c>
       <c r="T9">
-        <v>0.01475250731914317</v>
+        <v>0.01000654939170725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I10">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J10">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N10">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O10">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P10">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q10">
-        <v>2.11505464651</v>
+        <v>4.10090381405611</v>
       </c>
       <c r="R10">
-        <v>19.03549181859</v>
+        <v>36.90813432650499</v>
       </c>
       <c r="S10">
-        <v>0.01119258060629175</v>
+        <v>0.01471996325065626</v>
       </c>
       <c r="T10">
-        <v>0.01119258060629175</v>
+        <v>0.01471996325065626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I11">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J11">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N11">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q11">
-        <v>19.27477079352211</v>
+        <v>34.86955723245655</v>
       </c>
       <c r="R11">
-        <v>173.472937141699</v>
+        <v>313.8260150921089</v>
       </c>
       <c r="S11">
-        <v>0.1019994571441794</v>
+        <v>0.1251623116029009</v>
       </c>
       <c r="T11">
-        <v>0.1019994571441794</v>
+        <v>0.1251623116029009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I12">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J12">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N12">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q12">
-        <v>0.5742380166509999</v>
+        <v>0.6669320172507777</v>
       </c>
       <c r="R12">
-        <v>5.168142149858999</v>
+        <v>6.002388155256999</v>
       </c>
       <c r="S12">
-        <v>0.00303878923372916</v>
+        <v>0.00239391490992019</v>
       </c>
       <c r="T12">
-        <v>0.00303878923372916</v>
+        <v>0.00239391490992019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I13">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J13">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N13">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O13">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P13">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q13">
-        <v>2.331718974122777</v>
+        <v>2.099626278023444</v>
       </c>
       <c r="R13">
-        <v>20.985470767105</v>
+        <v>18.896636502211</v>
       </c>
       <c r="S13">
-        <v>0.01233913866582724</v>
+        <v>0.007536490260191801</v>
       </c>
       <c r="T13">
-        <v>0.01233913866582723</v>
+        <v>0.007536490260191801</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H14">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I14">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J14">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N14">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O14">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P14">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q14">
-        <v>8.169619956326112</v>
+        <v>2.348754848611222</v>
       </c>
       <c r="R14">
-        <v>73.526579606935</v>
+        <v>21.138793637501</v>
       </c>
       <c r="S14">
-        <v>0.04323251412668283</v>
+        <v>0.008430723231755576</v>
       </c>
       <c r="T14">
-        <v>0.04323251412668282</v>
+        <v>0.008430723231755576</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H15">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I15">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J15">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N15">
         <v>3.873479</v>
       </c>
       <c r="O15">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P15">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q15">
-        <v>0.834414086516111</v>
+        <v>0.1249295966407778</v>
       </c>
       <c r="R15">
-        <v>7.509726778645</v>
+        <v>1.124366369767</v>
       </c>
       <c r="S15">
-        <v>0.004415605496419365</v>
+        <v>0.0004484277502848053</v>
       </c>
       <c r="T15">
-        <v>0.004415605496419365</v>
+        <v>0.0004484277502848053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H16">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I16">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J16">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N16">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O16">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P16">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q16">
-        <v>0.63306167015</v>
+        <v>0.1837755453438889</v>
       </c>
       <c r="R16">
-        <v>5.69755503135</v>
+        <v>1.653979908095</v>
       </c>
       <c r="S16">
-        <v>0.003350075982007993</v>
+        <v>0.0006596519685634219</v>
       </c>
       <c r="T16">
-        <v>0.003350075982007994</v>
+        <v>0.0006596519685634218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H17">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I17">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J17">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N17">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O17">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P17">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q17">
-        <v>5.769174148970556</v>
+        <v>1.562624286463445</v>
       </c>
       <c r="R17">
-        <v>51.92256734073501</v>
+        <v>14.063618578171</v>
       </c>
       <c r="S17">
-        <v>0.03052968243663878</v>
+        <v>0.005608951858974312</v>
       </c>
       <c r="T17">
-        <v>0.03052968243663878</v>
+        <v>0.005608951858974312</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H18">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I18">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J18">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N18">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O18">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P18">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q18">
-        <v>0.171876447015</v>
+        <v>0.02988750790922222</v>
       </c>
       <c r="R18">
-        <v>1.546888023135</v>
+        <v>0.268987571183</v>
       </c>
       <c r="S18">
-        <v>0.0009095467063759981</v>
+        <v>0.0001072795261789649</v>
       </c>
       <c r="T18">
-        <v>0.0009095467063759979</v>
+        <v>0.0001072795261789649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H19">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I19">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J19">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N19">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O19">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P19">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q19">
-        <v>0.6979119478138888</v>
+        <v>0.09409144465655557</v>
       </c>
       <c r="R19">
-        <v>6.281207530324999</v>
+        <v>0.8468230019090001</v>
       </c>
       <c r="S19">
-        <v>0.003693254803080618</v>
+        <v>0.00033773594074516</v>
       </c>
       <c r="T19">
-        <v>0.003693254803080617</v>
+        <v>0.00033773594074516</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H20">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I20">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J20">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N20">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O20">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P20">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q20">
-        <v>25.99450274342211</v>
+        <v>20.91774092605622</v>
       </c>
       <c r="R20">
-        <v>233.950524690799</v>
+        <v>188.259668334506</v>
       </c>
       <c r="S20">
-        <v>0.1375593617669909</v>
+        <v>0.07508305282921302</v>
       </c>
       <c r="T20">
-        <v>0.1375593617669909</v>
+        <v>0.075083052829213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H21">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I21">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J21">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N21">
         <v>3.873479</v>
       </c>
       <c r="O21">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P21">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q21">
-        <v>2.654980204348111</v>
+        <v>1.112608639455778</v>
       </c>
       <c r="R21">
-        <v>23.894821839133</v>
+        <v>10.013477755102</v>
       </c>
       <c r="S21">
-        <v>0.01404979298965583</v>
+        <v>0.003993646041883885</v>
       </c>
       <c r="T21">
-        <v>0.01404979298965583</v>
+        <v>0.003993646041883884</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H22">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I22">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J22">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N22">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O22">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P22">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q22">
-        <v>2.01430708031</v>
+        <v>1.636683900118889</v>
       </c>
       <c r="R22">
-        <v>18.12876372279</v>
+        <v>14.73015510107</v>
       </c>
       <c r="S22">
-        <v>0.01065943823219665</v>
+        <v>0.005874784670665571</v>
       </c>
       <c r="T22">
-        <v>0.01065943823219665</v>
+        <v>0.00587478467066557</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H23">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I23">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J23">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N23">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O23">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P23">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q23">
-        <v>18.35664499014656</v>
+        <v>13.91655242705844</v>
       </c>
       <c r="R23">
-        <v>165.209804911319</v>
+        <v>125.248971843526</v>
       </c>
       <c r="S23">
-        <v>0.09714086066396377</v>
+        <v>0.04995268106508403</v>
       </c>
       <c r="T23">
-        <v>0.09714086066396377</v>
+        <v>0.04995268106508402</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H24">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I24">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J24">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N24">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O24">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P24">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q24">
-        <v>0.546885020031</v>
+        <v>0.2661747128442222</v>
       </c>
       <c r="R24">
-        <v>4.921965180279</v>
+        <v>2.395572415598</v>
       </c>
       <c r="S24">
-        <v>0.002894040907723425</v>
+        <v>0.0009554191390423393</v>
       </c>
       <c r="T24">
-        <v>0.002894040907723425</v>
+        <v>0.0009554191390423393</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H25">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I25">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J25">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N25">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O25">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P25">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q25">
-        <v>2.220650916333889</v>
+        <v>0.8379675996615555</v>
       </c>
       <c r="R25">
-        <v>19.985858247005</v>
+        <v>7.541708396954001</v>
       </c>
       <c r="S25">
-        <v>0.01175138165839593</v>
+        <v>0.003007837499133787</v>
       </c>
       <c r="T25">
-        <v>0.01175138165839593</v>
+        <v>0.003007837499133786</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H26">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I26">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J26">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N26">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O26">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P26">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q26">
-        <v>1.212513852618334</v>
+        <v>5.387928221207111</v>
       </c>
       <c r="R26">
-        <v>10.912624673565</v>
+        <v>48.491353990864</v>
       </c>
       <c r="S26">
-        <v>0.006416457869809415</v>
+        <v>0.01933966486643797</v>
       </c>
       <c r="T26">
-        <v>0.006416457869809413</v>
+        <v>0.01933966486643797</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H27">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I27">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J27">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N27">
         <v>3.873479</v>
       </c>
       <c r="O27">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P27">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q27">
-        <v>0.1238415794283333</v>
+        <v>0.2865823565208889</v>
       </c>
       <c r="R27">
-        <v>1.114574214855</v>
+        <v>2.579241208688</v>
       </c>
       <c r="S27">
-        <v>0.0006553527410978646</v>
+        <v>0.001028671226526903</v>
       </c>
       <c r="T27">
-        <v>0.0006553527410978645</v>
+        <v>0.001028671226526903</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H28">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I28">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J28">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N28">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O28">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P28">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q28">
-        <v>0.09395737485000002</v>
+        <v>0.4215720715644445</v>
       </c>
       <c r="R28">
-        <v>0.8456163736500002</v>
+        <v>3.79414864408</v>
       </c>
       <c r="S28">
-        <v>0.0004972096079406064</v>
+        <v>0.001513209205166388</v>
       </c>
       <c r="T28">
-        <v>0.0004972096079406063</v>
+        <v>0.001513209205166388</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H29">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I29">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J29">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N29">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O29">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P29">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q29">
-        <v>0.8562458977516669</v>
+        <v>3.584583336638222</v>
       </c>
       <c r="R29">
-        <v>7.706213079765002</v>
+        <v>32.261250029744</v>
       </c>
       <c r="S29">
-        <v>0.004531136462694166</v>
+        <v>0.01286665997953286</v>
       </c>
       <c r="T29">
-        <v>0.004531136462694164</v>
+        <v>0.01286665997953286</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H30">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I30">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J30">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N30">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O30">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P30">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q30">
-        <v>0.025509457485</v>
+        <v>0.06856047467911111</v>
       </c>
       <c r="R30">
-        <v>0.229585117365</v>
+        <v>0.6170442721120001</v>
       </c>
       <c r="S30">
-        <v>0.000134992568440139</v>
+        <v>0.000246093962083417</v>
       </c>
       <c r="T30">
-        <v>0.0001349925684401389</v>
+        <v>0.0002460939620834171</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H31">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I31">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J31">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N31">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O31">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P31">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q31">
-        <v>0.1035822852416667</v>
+        <v>0.2158411510417778</v>
       </c>
       <c r="R31">
-        <v>0.932240567175</v>
+        <v>1.942570359376</v>
       </c>
       <c r="S31">
-        <v>0.0005481433204878556</v>
+        <v>0.0007747496540700003</v>
       </c>
       <c r="T31">
-        <v>0.0005481433204878554</v>
+        <v>0.0007747496540700003</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H32">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I32">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J32">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N32">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O32">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P32">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q32">
-        <v>16.59321699279267</v>
+        <v>11.49110789481589</v>
       </c>
       <c r="R32">
-        <v>149.338952935134</v>
+        <v>103.419971053343</v>
       </c>
       <c r="S32">
-        <v>0.08780904030823769</v>
+        <v>0.04124668453360159</v>
       </c>
       <c r="T32">
-        <v>0.08780904030823768</v>
+        <v>0.04124668453360158</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H33">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I33">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J33">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N33">
         <v>3.873479</v>
       </c>
       <c r="O33">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P33">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q33">
-        <v>1.694768431508666</v>
+        <v>0.6112087326201112</v>
       </c>
       <c r="R33">
-        <v>15.252915883578</v>
+        <v>5.500878593581001</v>
       </c>
       <c r="S33">
-        <v>0.008968483301346091</v>
+        <v>0.002193899318440617</v>
       </c>
       <c r="T33">
-        <v>0.008968483301346091</v>
+        <v>0.002193899318440616</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H34">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I34">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J34">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N34">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O34">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P34">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q34">
-        <v>1.28580395646</v>
+        <v>0.8991081471205556</v>
       </c>
       <c r="R34">
-        <v>11.57223560814</v>
+        <v>8.091973324085</v>
       </c>
       <c r="S34">
-        <v>0.006804299099465069</v>
+        <v>0.003227298050399759</v>
       </c>
       <c r="T34">
-        <v>0.006804299099465069</v>
+        <v>0.003227298050399759</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H35">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I35">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J35">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N35">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O35">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P35">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q35">
-        <v>11.71770033793934</v>
+        <v>7.645022759794778</v>
       </c>
       <c r="R35">
-        <v>105.459303041454</v>
+        <v>68.805204838153</v>
       </c>
       <c r="S35">
-        <v>0.06200847139773324</v>
+        <v>0.02744137857827604</v>
       </c>
       <c r="T35">
-        <v>0.06200847139773324</v>
+        <v>0.02744137857827604</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H36">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I36">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J36">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N36">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O36">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P36">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q36">
-        <v>0.349096187646</v>
+        <v>0.1462224030298889</v>
       </c>
       <c r="R36">
-        <v>3.141865688814</v>
+        <v>1.316001627269</v>
       </c>
       <c r="S36">
-        <v>0.001847369393516298</v>
+        <v>0.000524857079467498</v>
       </c>
       <c r="T36">
-        <v>0.001847369393516298</v>
+        <v>0.0005248570794674979</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H37">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I37">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J37">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N37">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O37">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P37">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q37">
-        <v>1.417520576703333</v>
+        <v>0.4603353743652223</v>
       </c>
       <c r="R37">
-        <v>12.75768519033</v>
+        <v>4.143018369287001</v>
       </c>
       <c r="S37">
-        <v>0.00750132548206679</v>
+        <v>0.001652347897165396</v>
       </c>
       <c r="T37">
-        <v>0.007501325482066789</v>
+        <v>0.001652347897165395</v>
       </c>
     </row>
   </sheetData>
